--- a/docs/Kiểm thử động.xlsx
+++ b/docs/Kiểm thử động.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\khoi-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCCC4B9-6710-4D51-A2C8-576E2611E30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0538501C-65EE-45C0-92CE-41F047D10D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3540" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
